--- a/refs/litreview/preseason_review_ake.xlsx
+++ b/refs/litreview/preseason_review_ake.xlsx
@@ -1,35 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ailene.ettinger\Documents\GitHub\decsens\refs\litreview\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39884D14-2842-4BA6-8644-CDC6374BE2D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="980" windowWidth="25740" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="680" yWindow="320" windowWidth="17440" windowHeight="9170" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="senswindows" sheetId="4" r:id="rId1"/>
-    <sheet name="preseason_review" sheetId="1" r:id="rId2"/>
-    <sheet name="meta" sheetId="2" r:id="rId3"/>
+    <sheet name="meta" sheetId="2" r:id="rId2"/>
+    <sheet name="preseason_review" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="166">
   <si>
     <t>Search was: You searched for: TOPIC: (preseason  OR pre-season) AND TOPIC: (phenolog*)
 Timespan: All years. Indexes: SCI-EXPANDED, SSCI, A&amp;HCI, CPCI-S, CPCI-SSH, BKCI-S, BKCI-SSH, ESCI, CCR-EXPANDED, IC.</t>
@@ -405,13 +403,399 @@
   </si>
   <si>
     <t>Ailene! Please also do the one I added to preseason_review which I think you missed before. Thank you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statisticalsearch </t>
+  </si>
+  <si>
+    <t>1-day step, up to 120 days before event</t>
+  </si>
+  <si>
+    <t>10-day step, temperature and precipitation</t>
+  </si>
+  <si>
+    <t>monthly and seasonal (2-3 month) temperature used for statistical search</t>
+  </si>
+  <si>
+    <t>window with largest correlation coefficient selected for statistical search</t>
+  </si>
+  <si>
+    <t> the mean of March, April and May temperatures</t>
+  </si>
+  <si>
+    <t>also tried T range, ΔT, and ΔT/MAT as explanatory variables</t>
+  </si>
+  <si>
+    <t>soil temperature for experiment</t>
+  </si>
+  <si>
+    <t>statistical search</t>
+  </si>
+  <si>
+    <r>
+      <t>The optimal preseason for each species/station defined as the period (with 15‐day steps) before the mean FFD for which the absolute value of Spearman correlation coefficient between FFD and mean temperature was the highest (Dai </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>., </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>; Fu </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>., </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>; Wang </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>., </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>found that locations with shorter pre-season had weaker Sensitivity</t>
+  </si>
+  <si>
+    <t>References cited for statistical search</t>
+  </si>
+  <si>
+    <t>Fu et al 2015</t>
+  </si>
+  <si>
+    <r>
+      <t> Dai </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>., </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>; Fu </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>., </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>; Wang </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>., </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF1C1D1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <r>
+      <t>Matsumoto et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FFA345C9"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>2003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>; Dai et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FFA345C9"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>2013</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> both statistical search and predefined</t>
+  </si>
+  <si>
+    <t>July-Aug Air Temperature used for predefined, for search 10-day windows, offset by 1 day</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow-free season </t>
+  </si>
+  <si>
+    <t>no months/dates provided for snow-free season</t>
+  </si>
+  <si>
+    <t>starting from the first date on which the 5 cm depth soil temperature remained above 0 °C for five continuous days, and ending on community phenology survey date</t>
+  </si>
+  <si>
+    <t>response = community phenophase (diversity index); temperature = soil</t>
+  </si>
+  <si>
+    <t>no months/dates provided for window used</t>
+  </si>
+  <si>
+    <t>period (with 5 day steps) before the mean FBD for which the Spearman's rank correlation coefficient between FBD and mean temperature was highest during 1963–2013</t>
+  </si>
+  <si>
+    <t>(H. Wang, Zhong, et al., 2017).</t>
+  </si>
+  <si>
+    <t>degree days (days of soil temps &gt;0 degrees C), starting 1Jan, ended on Flowering date</t>
+  </si>
+  <si>
+    <t>MAT and statistical seatch of season (fall, win, spr, sum) preceding flowering that best predicted phenology</t>
+  </si>
+  <si>
+    <t>average temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDD </t>
+  </si>
+  <si>
+    <t>60-day preseason (particular dates varied by site, pre-season ends on average leafout date at each site), tested 45 and 90-day windows as well</t>
+  </si>
+  <si>
+    <t>The start of GDD was fixed at December 1st, January 1st and February 1st; ended on day of leafunfolding</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Separate models were fitted for each month of the year; Models were also fitted with alternative temperature variables based on means over the previous 1–6 months. The optimal temperature averaging period was selected based on minimizing the summed deviance information criteria (DIC) of the GLMMs for each of the 12 months. They found that average of three months prior were  best.</t>
+  </si>
+  <si>
+    <t>60-day window (90 days did not improve fit, 30 days reduced fit)</t>
+  </si>
+  <si>
+    <t>also used statistical search across 12 months</t>
+  </si>
+  <si>
+    <t>crop cultivar</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>2 months prior to mean date of event</t>
+  </si>
+  <si>
+    <t>mean event</t>
+  </si>
+  <si>
+    <t>2 months</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -501,6 +885,39 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1C1D1E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF1C1D1E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FFA345C9"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -519,7 +936,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -591,8 +1008,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -609,8 +1027,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="71"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="72">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -681,6 +1102,7 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1017,17 +1439,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="31.1640625" customWidth="1"/>
@@ -1035,7 +1457,7 @@
     <col min="10" max="10" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
@@ -1066,8 +1488,11 @@
       <c r="J1" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1092,8 +1517,11 @@
       <c r="I2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1116,7 +1544,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>37</v>
       </c>
@@ -1132,8 +1560,20 @@
       <c r="E4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -1149,8 +1589,18 @@
       <c r="E5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>37</v>
       </c>
@@ -1166,8 +1616,23 @@
       <c r="E6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="G6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -1183,8 +1648,17 @@
       <c r="E7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>37</v>
       </c>
@@ -1200,8 +1674,23 @@
       <c r="E8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
@@ -1217,8 +1706,20 @@
       <c r="E9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="G9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -1234,8 +1735,20 @@
       <c r="E10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>37</v>
       </c>
@@ -1251,8 +1764,23 @@
       <c r="E11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>37</v>
       </c>
@@ -1268,8 +1796,17 @@
       <c r="E12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>37</v>
       </c>
@@ -1285,8 +1822,17 @@
       <c r="E13" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>37</v>
       </c>
@@ -1302,8 +1848,14 @@
       <c r="E14" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="G14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>37</v>
       </c>
@@ -1319,8 +1871,14 @@
       <c r="E15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>37</v>
       </c>
@@ -1336,8 +1894,20 @@
       <c r="E16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" t="s">
+        <v>154</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>37</v>
       </c>
@@ -1353,8 +1923,17 @@
       <c r="E17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>37</v>
       </c>
@@ -1370,8 +1949,17 @@
       <c r="E18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>37</v>
       </c>
@@ -1387,8 +1975,17 @@
       <c r="E19" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>37</v>
       </c>
@@ -1404,15 +2001,21 @@
       <c r="E20" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K12" r:id="rId1" location="jgrg20969-bib-0050" display="https://agupubs-onlinelibrary-wiley-com.ezp-prod1.hul.harvard.edu/doi/full/10.1002/2017jg004181 - jgrg20969-bib-0050" xr:uid="{130F8E64-4D4E-47BE-9FDF-4148D7DE5C5C}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1422,88 +2025,319 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="12" max="12" width="21.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="12" customFormat="1">
-      <c r="B2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="12">
-        <v>2017</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="L4" s="7"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="J6" s="8"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="J11" s="9"/>
-    </row>
-    <row r="17" spans="9:12">
-      <c r="I17" s="4"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="24" spans="9:12">
-      <c r="L24" s="11"/>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1517,319 +2351,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:G68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="6"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
+    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2017</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="B64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="B65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>82</v>
-      </c>
+      <c r="I2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L4" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J6" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J11" s="9"/>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I17" s="4"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="24" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="L24" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
